--- a/EvaluationResults/evaluationClustering.xlsx
+++ b/EvaluationResults/evaluationClustering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natashatroth/Documents/FHS/6Semester/Bac2/git/EvaluationResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B61A79D-B299-4545-BE60-FDEE67D70B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FB5D48-6046-1C49-B71A-19FFDD52D62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="30500" windowHeight="20000" xr2:uid="{2B1A50F0-DC49-944D-9698-B5EFC79A75CC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="57">
   <si>
     <t>DBSCAN (TSNE)</t>
   </si>
@@ -210,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +320,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -380,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -444,6 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3869,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE41F2-52D7-8E42-8F6C-1A7EFDB69055}">
   <dimension ref="A1:R424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409:B409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6693,19 +6702,19 @@
         <v>1</v>
       </c>
       <c r="B213" s="5">
-        <f>(B91+B137+B174)/3</f>
+        <f t="shared" ref="B213:E215" si="40">(B91+B137+B174)/3</f>
         <v>5.3476364551338168E-2</v>
       </c>
       <c r="C213" s="8">
-        <f>(C91+C137+C174)/3</f>
+        <f t="shared" si="40"/>
         <v>1.3788914122799931E-2</v>
       </c>
       <c r="D213" s="8">
-        <f>(D91+D137+D174)/3</f>
+        <f t="shared" si="40"/>
         <v>-3.8610231931522555E-2</v>
       </c>
       <c r="E213" s="8">
-        <f>(E91+E137+E174)/3</f>
+        <f t="shared" si="40"/>
         <v>-5.2956535824295693E-2</v>
       </c>
       <c r="F213" s="8"/>
@@ -6722,19 +6731,19 @@
         <v>2</v>
       </c>
       <c r="B214" s="8">
-        <f>(B92+B138+B175)/3</f>
+        <f t="shared" si="40"/>
         <v>2.0424479297613218</v>
       </c>
       <c r="C214" s="8">
-        <f>(C92+C138+C175)/3</f>
+        <f t="shared" si="40"/>
         <v>1.5971712219960184</v>
       </c>
       <c r="D214" s="8">
-        <f>(D92+D138+D175)/3</f>
+        <f t="shared" si="40"/>
         <v>1.7552450506927169</v>
       </c>
       <c r="E214" s="5">
-        <f>(E92+E138+E175)/3</f>
+        <f t="shared" si="40"/>
         <v>1.5778075906192635</v>
       </c>
       <c r="F214" s="8"/>
@@ -6751,26 +6760,26 @@
         <v>4</v>
       </c>
       <c r="B215" s="5">
-        <f>(B93+B139+B176)/3</f>
+        <f t="shared" si="40"/>
         <v>494.50099032821817</v>
       </c>
       <c r="C215" s="8">
-        <f>(C93+C139+C176)/3</f>
+        <f t="shared" si="40"/>
         <v>349.31474493570403</v>
       </c>
       <c r="D215" s="8">
-        <f>(D93+D139+D176)/3</f>
+        <f t="shared" si="40"/>
         <v>344.82159870995883</v>
       </c>
       <c r="E215" s="8">
-        <f>(E93+E139+E176)/3</f>
+        <f t="shared" si="40"/>
         <v>364.22586263613329</v>
       </c>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
       <c r="H215" s="8"/>
       <c r="J215">
-        <f t="shared" ref="J215" si="40">MAX(B215:H215)</f>
+        <f t="shared" ref="J215" si="41">MAX(B215:H215)</f>
         <v>494.50099032821817</v>
       </c>
       <c r="L215" s="8"/>
@@ -6803,26 +6812,26 @@
         <v>1</v>
       </c>
       <c r="B218" s="8">
-        <f>(B96+B142+B179)/3</f>
+        <f t="shared" ref="B218:E220" si="42">(B96+B142+B179)/3</f>
         <v>7.84370617856852E-2</v>
       </c>
       <c r="C218" s="4">
-        <f>(C96+C142+C179)/3</f>
+        <f t="shared" si="42"/>
         <v>0.12075055999054575</v>
       </c>
       <c r="D218" s="8">
-        <f>(D96+D142+D179)/3</f>
+        <f t="shared" si="42"/>
         <v>-1.7926105642698965E-2</v>
       </c>
       <c r="E218" s="8">
-        <f>(E96+E142+E179)/3</f>
+        <f t="shared" si="42"/>
         <v>5.1200059568653734E-2</v>
       </c>
       <c r="F218" s="8"/>
       <c r="G218" s="8"/>
       <c r="H218" s="8"/>
       <c r="J218">
-        <f t="shared" ref="J218" si="41">MAX(B218:H218)</f>
+        <f t="shared" ref="J218" si="43">MAX(B218:H218)</f>
         <v>0.12075055999054575</v>
       </c>
       <c r="L218" s="8"/>
@@ -6832,19 +6841,19 @@
         <v>2</v>
       </c>
       <c r="B219" s="8">
-        <f>(B97+B143+B180)/3</f>
+        <f t="shared" si="42"/>
         <v>1.8441210621411483</v>
       </c>
       <c r="C219" s="8">
-        <f>(C97+C143+C180)/3</f>
+        <f t="shared" si="42"/>
         <v>1.5968004293337199</v>
       </c>
       <c r="D219" s="8">
-        <f>(D97+D143+D180)/3</f>
+        <f t="shared" si="42"/>
         <v>1.8281623689845699</v>
       </c>
       <c r="E219" s="5">
-        <f>(E97+E143+E180)/3</f>
+        <f t="shared" si="42"/>
         <v>1.4619808281554416</v>
       </c>
       <c r="F219" s="8"/>
@@ -6861,26 +6870,26 @@
         <v>4</v>
       </c>
       <c r="B220" s="5">
-        <f>(B98+B144+B181)/3</f>
+        <f t="shared" si="42"/>
         <v>398.33155987791588</v>
       </c>
       <c r="C220" s="8">
-        <f>(C98+C144+C181)/3</f>
+        <f t="shared" si="42"/>
         <v>347.24394353603765</v>
       </c>
       <c r="D220" s="8">
-        <f>(D98+D144+D181)/3</f>
+        <f t="shared" si="42"/>
         <v>268.49229088566148</v>
       </c>
       <c r="E220" s="8">
-        <f>(E98+E144+E181)/3</f>
+        <f t="shared" si="42"/>
         <v>303.98345329383778</v>
       </c>
       <c r="F220" s="8"/>
       <c r="G220" s="8"/>
       <c r="H220" s="8"/>
       <c r="J220">
-        <f t="shared" ref="J220" si="42">MAX(B220:H220)</f>
+        <f t="shared" ref="J220" si="44">MAX(B220:H220)</f>
         <v>398.33155987791588</v>
       </c>
       <c r="L220" s="8"/>
@@ -6979,32 +6988,32 @@
         <v>1</v>
       </c>
       <c r="B228" s="7">
-        <f>(B106+B152+B189)/3</f>
+        <f t="shared" ref="B228:G230" si="45">(B106+B152+B189)/3</f>
         <v>1.1948288563046897E-2</v>
       </c>
       <c r="C228" s="7">
-        <f>(C106+C152+C189)/3</f>
+        <f t="shared" si="45"/>
         <v>4.5027431817992368E-2</v>
       </c>
       <c r="D228" s="7">
-        <f>(D106+D152+D189)/3</f>
+        <f t="shared" si="45"/>
         <v>2.9207256708174163E-2</v>
       </c>
       <c r="E228" s="4">
-        <f>(E106+E152+E189)/3</f>
+        <f t="shared" si="45"/>
         <v>8.4418904573082931E-2</v>
       </c>
       <c r="F228" s="7">
-        <f>(F106+F152+F189)/3</f>
+        <f t="shared" si="45"/>
         <v>5.8235746534641197E-2</v>
       </c>
       <c r="G228" s="7">
-        <f>(G106+G152+G189)/3</f>
+        <f t="shared" si="45"/>
         <v>6.6334556256059204E-2</v>
       </c>
       <c r="H228" s="8"/>
       <c r="J228">
-        <f t="shared" ref="J228" si="43">MAX(B228:H228)</f>
+        <f t="shared" ref="J228" si="46">MAX(B228:H228)</f>
         <v>8.4418904573082931E-2</v>
       </c>
       <c r="L228" s="8"/>
@@ -7014,27 +7023,27 @@
         <v>2</v>
       </c>
       <c r="B229" s="7">
-        <f>(B107+B153+B190)/3</f>
+        <f t="shared" si="45"/>
         <v>1.7026238089415802</v>
       </c>
       <c r="C229" s="7">
-        <f>(C107+C153+C190)/3</f>
+        <f t="shared" si="45"/>
         <v>1.5811504290942751</v>
       </c>
       <c r="D229" s="7">
-        <f>(D107+D153+D190)/3</f>
+        <f t="shared" si="45"/>
         <v>1.7135165238966135</v>
       </c>
       <c r="E229" s="4">
-        <f>(E107+E153+E190)/3</f>
+        <f t="shared" si="45"/>
         <v>1.5237901467451034</v>
       </c>
       <c r="F229" s="7">
-        <f>(F107+F153+F190)/3</f>
+        <f t="shared" si="45"/>
         <v>1.59069042680274</v>
       </c>
       <c r="G229" s="7">
-        <f>(G107+G153+G190)/3</f>
+        <f t="shared" si="45"/>
         <v>1.6080062129894384</v>
       </c>
       <c r="H229" s="8"/>
@@ -7049,32 +7058,32 @@
         <v>4</v>
       </c>
       <c r="B230" s="7">
-        <f>(B108+B154+B191)/3</f>
+        <f t="shared" si="45"/>
         <v>513.2268220228533</v>
       </c>
       <c r="C230" s="4">
-        <f>(C108+C154+C191)/3</f>
+        <f t="shared" si="45"/>
         <v>639.55709867662256</v>
       </c>
       <c r="D230" s="7">
-        <f>(D108+D154+D191)/3</f>
+        <f t="shared" si="45"/>
         <v>496.32190160591693</v>
       </c>
       <c r="E230" s="7">
-        <f>(E108+E154+E191)/3</f>
+        <f t="shared" si="45"/>
         <v>525.43168322092617</v>
       </c>
       <c r="F230" s="7">
-        <f>(F108+F154+F191)/3</f>
+        <f t="shared" si="45"/>
         <v>525.32197039731113</v>
       </c>
       <c r="G230" s="7">
-        <f>(G108+G154+G191)/3</f>
+        <f t="shared" si="45"/>
         <v>523.13980474261155</v>
       </c>
       <c r="H230" s="8"/>
       <c r="J230">
-        <f t="shared" ref="J230" si="44">MAX(B230:H230)</f>
+        <f t="shared" ref="J230" si="47">MAX(B230:H230)</f>
         <v>639.55709867662256</v>
       </c>
       <c r="L230" s="8"/>
@@ -7107,32 +7116,32 @@
         <v>1</v>
       </c>
       <c r="B233" s="7">
-        <f>(B111+B157+B194)/3</f>
+        <f t="shared" ref="B233:G235" si="48">(B111+B157+B194)/3</f>
         <v>5.2804308606630934E-2</v>
       </c>
       <c r="C233" s="7">
-        <f>(C111+C157+C194)/3</f>
+        <f t="shared" si="48"/>
         <v>7.7179238183635701E-2</v>
       </c>
       <c r="D233" s="5">
-        <f>(D111+D157+D194)/3</f>
+        <f t="shared" si="48"/>
         <v>0.105263528315648</v>
       </c>
       <c r="E233" s="7">
-        <f>(E111+E157+E194)/3</f>
+        <f t="shared" si="48"/>
         <v>8.8594439552973137E-2</v>
       </c>
       <c r="F233" s="7">
-        <f>(F111+F157+F194)/3</f>
+        <f t="shared" si="48"/>
         <v>7.7369563318818377E-2</v>
       </c>
       <c r="G233" s="7">
-        <f>(G111+G157+G194)/3</f>
+        <f t="shared" si="48"/>
         <v>8.3093492876459743E-2</v>
       </c>
       <c r="H233" s="8"/>
       <c r="J233">
-        <f t="shared" ref="J233" si="45">MAX(B233:H233)</f>
+        <f t="shared" ref="J233" si="49">MAX(B233:H233)</f>
         <v>0.105263528315648</v>
       </c>
       <c r="L233" s="8"/>
@@ -7142,27 +7151,27 @@
         <v>2</v>
       </c>
       <c r="B234" s="7">
-        <f>(B112+B158+B195)/3</f>
+        <f t="shared" si="48"/>
         <v>1.7740050529849585</v>
       </c>
       <c r="C234" s="7">
-        <f>(C112+C158+C195)/3</f>
+        <f t="shared" si="48"/>
         <v>1.6492073341926516</v>
       </c>
       <c r="D234" s="7">
-        <f>(D112+D158+D195)/3</f>
+        <f t="shared" si="48"/>
         <v>1.6214487292024764</v>
       </c>
       <c r="E234" s="7">
-        <f>(E112+E158+E195)/3</f>
+        <f t="shared" si="48"/>
         <v>1.4901966997179683</v>
       </c>
       <c r="F234" s="4">
-        <f>(F112+F158+F195)/3</f>
+        <f t="shared" si="48"/>
         <v>1.455415829557795</v>
       </c>
       <c r="G234" s="7">
-        <f>(G112+G158+G195)/3</f>
+        <f t="shared" si="48"/>
         <v>1.6535794048073615</v>
       </c>
       <c r="H234" s="8"/>
@@ -7177,32 +7186,32 @@
         <v>4</v>
       </c>
       <c r="B235" s="4">
-        <f>(B113+B159+B196)/3</f>
+        <f t="shared" si="48"/>
         <v>442.95525841442014</v>
       </c>
       <c r="C235" s="7">
-        <f>(C113+C159+C196)/3</f>
+        <f t="shared" si="48"/>
         <v>408.66417514142768</v>
       </c>
       <c r="D235" s="7">
-        <f>(D113+D159+D196)/3</f>
+        <f t="shared" si="48"/>
         <v>325.60169638554811</v>
       </c>
       <c r="E235" s="7">
-        <f>(E113+E159+E196)/3</f>
+        <f t="shared" si="48"/>
         <v>320.88918608069849</v>
       </c>
       <c r="F235" s="7">
-        <f>(F113+F159+F196)/3</f>
+        <f t="shared" si="48"/>
         <v>325.76494297944652</v>
       </c>
       <c r="G235" s="7">
-        <f>(G113+G159+G196)/3</f>
+        <f t="shared" si="48"/>
         <v>298.09655601103941</v>
       </c>
       <c r="H235" s="8"/>
       <c r="J235">
-        <f t="shared" ref="J235" si="46">MAX(B235:H235)</f>
+        <f t="shared" ref="J235" si="50">MAX(B235:H235)</f>
         <v>442.95525841442014</v>
       </c>
       <c r="L235" s="8"/>
@@ -7369,7 +7378,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="5">
-        <f t="shared" ref="B250:B256" si="47">E214</f>
+        <f t="shared" ref="B250:B256" si="51">E214</f>
         <v>1.5778075906192635</v>
       </c>
       <c r="C250" s="7">
@@ -7391,7 +7400,7 @@
         <v>4</v>
       </c>
       <c r="B251" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>364.22586263613329</v>
       </c>
       <c r="C251" s="5">
@@ -7434,11 +7443,11 @@
         <v>1</v>
       </c>
       <c r="B254" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>5.1200059568653734E-2</v>
       </c>
       <c r="C254" s="5">
-        <f t="shared" ref="C254:C256" si="48">G233</f>
+        <f t="shared" ref="C254:C256" si="52">G233</f>
         <v>8.3093492876459743E-2</v>
       </c>
       <c r="D254" s="8"/>
@@ -7456,11 +7465,11 @@
         <v>2</v>
       </c>
       <c r="B255" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1.4619808281554416</v>
       </c>
       <c r="C255" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1.6535794048073615</v>
       </c>
       <c r="D255" s="7"/>
@@ -7478,11 +7487,11 @@
         <v>4</v>
       </c>
       <c r="B256" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>303.98345329383778</v>
       </c>
       <c r="C256" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>298.09655601103941</v>
       </c>
       <c r="D256" s="7"/>
@@ -7507,10 +7516,7 @@
       </c>
     </row>
     <row r="261" spans="1:6">
-      <c r="A261" s="4"/>
-      <c r="B261" t="s">
-        <v>5</v>
-      </c>
+      <c r="A261" s="8"/>
     </row>
     <row r="266" spans="1:6">
       <c r="C266" t="s">
@@ -7793,11 +7799,11 @@
         <v>1</v>
       </c>
       <c r="B317" s="8">
-        <f t="shared" ref="B317:C319" si="49">B213</f>
+        <f t="shared" ref="B317:C319" si="53">B213</f>
         <v>5.3476364551338168E-2</v>
       </c>
       <c r="C317" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.3788914122799931E-2</v>
       </c>
       <c r="D317" s="11">
@@ -7824,11 +7830,11 @@
         <v>2</v>
       </c>
       <c r="B318" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2.0424479297613218</v>
       </c>
       <c r="C318" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.5971712219960184</v>
       </c>
       <c r="D318" s="14">
@@ -7855,11 +7861,11 @@
         <v>4</v>
       </c>
       <c r="B319" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>494.50099032821817</v>
       </c>
       <c r="C319" s="8">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>349.31474493570403</v>
       </c>
       <c r="D319" s="11">
@@ -7877,7 +7883,7 @@
       </c>
       <c r="H319" s="8"/>
       <c r="J319">
-        <f t="shared" ref="J319" si="50">MAX(B319:H319)</f>
+        <f t="shared" ref="J319" si="54">MAX(B319:H319)</f>
         <v>639.55709867662256</v>
       </c>
     </row>
@@ -7911,11 +7917,11 @@
         <v>1</v>
       </c>
       <c r="B322" s="8">
-        <f t="shared" ref="B322:C324" si="51">B218</f>
+        <f t="shared" ref="B322:C324" si="55">B218</f>
         <v>7.84370617856852E-2</v>
       </c>
       <c r="C322" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.12075055999054575</v>
       </c>
       <c r="D322" s="11">
@@ -7933,7 +7939,7 @@
       </c>
       <c r="H322" s="8"/>
       <c r="J322">
-        <f t="shared" ref="J322" si="52">MAX(B322:H322)</f>
+        <f t="shared" ref="J322" si="56">MAX(B322:H322)</f>
         <v>0.12075055999054575</v>
       </c>
       <c r="L322" t="s">
@@ -7951,11 +7957,11 @@
         <v>2</v>
       </c>
       <c r="B323" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1.8441210621411483</v>
       </c>
       <c r="C323" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1.5968004293337199</v>
       </c>
       <c r="D323" s="13">
@@ -7988,11 +7994,11 @@
         <v>4</v>
       </c>
       <c r="B324" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>398.33155987791588</v>
       </c>
       <c r="C324" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>347.24394353603765</v>
       </c>
       <c r="D324" s="11">
@@ -8010,7 +8016,7 @@
       </c>
       <c r="H324" s="8"/>
       <c r="J324">
-        <f t="shared" ref="J324" si="53">MAX(B324:H324)</f>
+        <f t="shared" ref="J324" si="57">MAX(B324:H324)</f>
         <v>442.95525841442014</v>
       </c>
       <c r="M324" s="36"/>
@@ -8831,10 +8837,10 @@
     <row r="402" spans="1:9" s="22" customFormat="1"/>
     <row r="403" spans="1:9" s="22" customFormat="1"/>
     <row r="409" spans="1:9">
-      <c r="A409" t="s">
+      <c r="A409" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B409" s="30" t="s">
+      <c r="B409" s="37" t="s">
         <v>55</v>
       </c>
     </row>
